--- a/pred_ohlcv/54_21/2019-11-14 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 LINK ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>184141.4171667326</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>247720.0432667326</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>310677.5751667325</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>278455.5870667325</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>310003.9060667325</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>363629.8419667325</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>331446.7164112842</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>334447.5478112843</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>337947.5478112843</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>337923.8393112843</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>337902.5478112843</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>353154.1417228605</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>353811.2370228604</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>354860.9551228604</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>358979.0887228604</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>365979.8967228605</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>366383.9700228604</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>366235.9071228604</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>364846.3058228604</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>367407.8304228605</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>362606.4479228604</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>364944.4740228605</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>366441.3848228605</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>368756.0357228605</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>367575.9190228605</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>365491.1055228605</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>365342.6991088961</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>365448.6902088961</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>364264.9486088961</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>362371.2196088961</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>364069.3041088961</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>363658.7788743891</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>363659.7788743891</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>363902.8541085811</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>360077.5136085811</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>361411.7574085811</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>362685.7280113304</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>361801.8139113304</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>362595.5847113304</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>359876.2263113304</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>358776.2263113304</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>363577.2263113304</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>362943.6146113304</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>363919.1848113304</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>358281.3762113304</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>361836.2707256404</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>361342.0722256404</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>379336.6131823451</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>382821.024682345</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>382081.306282345</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>390809.6843967477</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>397368.0986475828</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>401458.1556475827</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>413309.0173340871</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>420203.8188988598</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>411867.6691591925</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>410301.7002045218</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>419621.573443667</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>426114.365643667</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>431464.7259224005</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>428692.8902224005</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>429340.3982224005</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>430606.3319224005</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>428465.6580224005</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>428682.3342224005</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>428247.9628224005</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>431691.3031224005</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>430918.1247224005</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>429199.6392224005</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>423939.0027224005</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>424033.7090224005</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>421116.3090224005</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>425737.7072859425</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>425072.2229859424</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>425701.7222859425</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>419521.0104517021</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>419656.3974517021</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>417974.8755517021</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>422825.7115910943</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>423212.1799175227</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>423212.1799175227</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>423090.0415175227</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>421618.7090175227</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>421352.7539650234</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>422271.8920650234</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>422271.8920650234</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>422285.1820650233</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>420435.1720650233</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>420187.4720650233</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>572308.034975449</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>363005.7057491651</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-14 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 LINK ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>95558.58296673256</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>125569.3658667326</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>96287.35746673256</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>96287.35746673256</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>96287.35746673256</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>69059.70566673257</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>126440.7809667326</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>106658.3846667326</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>139218.1985667326</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>109722.9903667326</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>137066.5475667326</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>137066.5475667326</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>121304.6237667326</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>121304.6237667326</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>155015.3119667326</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>178961.0576667326</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>166224.2336667326</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>182581.3153667326</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>214588.6547667326</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>183145.7145667326</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>214431.6669667326</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>185307.9340667326</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>216421.7850667326</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>184141.4171667326</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>215888.1657667326</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>247720.0432667326</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>279218.1132667325</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>310677.5751667325</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>278455.5870667325</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>310003.9060667325</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>341538.7807667325</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>363629.8419667325</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>333550.6430667325</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>334246.5303667325</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>333896.1756667325</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>333246.8813667325</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>333614.4676667325</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>333720.4176667325</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>333720.4176667325</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>334140.8150667325</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>334442.6562982447</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>334235.7233982447</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>333930.7164982447</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>333945.8301112843</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>333508.3360112843</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>333478.3360112843</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>333478.3360112843</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>334338.7360112843</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>334509.7105112843</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>334642.0639112843</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>334707.9005936674</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>332785.7465112843</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>332501.1327112843</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>332501.1327112843</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>332483.1827112843</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>332483.1827112843</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>332471.1827112843</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>332152.8335112843</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>332226.6874112842</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>334447.5478112843</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>337947.5478112843</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>337923.8393112843</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>337902.5478112843</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>337908.5478112843</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>337906.9448112843</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>338058.2668112843</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>338261.8675112843</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>338261.8675112843</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>338927.1852112843</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>338927.1852112843</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>339497.2073112843</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>339271.3073112843</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>339271.3073112843</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>337411.6918112843</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>337411.6918112843</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>336756.1918112843</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>341086.3418112843</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>342085.2655112843</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>351517.2083112843</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>351105.0445112843</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>351523.7445112843</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>351523.7445112843</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>351887.8445112843</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>351865.8445112843</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>354476.8445112843</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>353154.1417228605</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>353159.1417228605</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>353811.2370228604</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>354860.9551228604</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>358979.0887228604</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>365979.8967228605</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>366383.9700228604</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>366235.9071228604</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>364846.3058228604</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>364875.1558228604</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>367407.8304228605</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>362606.4479228604</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>364944.4740228605</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>366441.3848228605</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>368756.0357228605</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>367575.9190228605</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>365491.1055228605</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>365342.6991088961</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>365448.6902088961</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>364264.9486088961</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>362371.2196088961</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>364069.3041088961</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>363658.7788743891</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>363659.7788743891</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>363902.8541085811</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>360077.5136085811</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>361411.7574085811</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>364348.2663113304</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>362685.7280113304</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>361385.7280113304</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>361801.8139113304</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>362478.1011113304</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>362595.5847113304</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>365819.0893113304</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>361819.9228113304</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>359876.2263113304</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>358776.2263113304</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>363577.2263113304</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>362943.6146113304</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>363966.7311113304</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>363919.1848113304</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>358281.3762113304</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>361836.2707256404</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>361342.0722256404</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>379336.6131823451</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>382821.024682345</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>382081.306282345</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>386041.3618823451</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>390809.6843967477</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>397368.0986475828</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>401458.1556475827</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>413309.0173340871</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>422967.3899988598</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>420203.8188988598</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>411867.6691591925</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>410301.7002045218</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>419621.573443667</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>426114.365643667</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>431464.7259224005</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>428692.8902224005</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>429340.3982224005</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>430606.3319224005</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>428465.6580224005</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>428682.3342224005</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>428247.9628224005</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>431691.3031224005</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>430918.1247224005</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>429575.0017224005</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>429199.6392224005</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>423939.0027224005</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>424033.7090224005</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>421116.3090224005</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>423090.0415175227</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>485721.2102754489</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>504915.1172754489</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>504915.1172754489</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>486906.7459754489</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>486906.7459754489</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>482746.3684754489</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>463496.2607754489</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>481187.9244754489</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>466445.9260754489</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>448725.0517754489</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>448725.0517754489</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>430981.1214754489</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>453372.9617754489</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>581905.267775449</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>581905.267775449</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>579809.246575449</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>569718.649275449</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>570011.290975449</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>570011.290975449</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>572162.108175449</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>572162.108175449</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>572162.108175449</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>572370.665675449</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>572370.665675449</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>572368.675675449</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>572368.675675449</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>572312.034975449</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>572310.034975449</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>572308.034975449</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>572306.034975449</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>572303.034975449</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>572315.706375449</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>572453.819375449</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>572455.809375449</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>572778.338675449</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>567172.525075449</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>566887.3466754491</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>566885.3466754491</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>565957.2344754491</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>561306.194675449</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>556308.4067754491</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>556464.586275449</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>363005.7057491651</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
